--- a/server/api/src/main/resources/template/卷王题库导入模板.xlsx
+++ b/server/api/src/main/resources/template/卷王题库导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17860"/>
+    <workbookView windowHeight="17860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="1" r:id="rId1"/>
@@ -161,10 +161,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0;[Red]0.0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -177,7 +178,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,137 +313,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,13 +343,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,169 +505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,8 +555,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,11 +585,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,21 +619,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -639,164 +649,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,6 +806,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1126,8 +1134,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -1142,7 +1150,7 @@
     <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="2"/>
+    <col min="11" max="11" width="9.125" style="6"/>
     <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="26.4821428571429" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9.125" style="2"/>
@@ -1179,7 +1187,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1208,8 +1216,8 @@
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
-        <v>2.5</v>
+      <c r="K2" s="6">
+        <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>19</v>
@@ -1232,7 +1240,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -1247,7 +1255,7 @@
     <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="24.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="2"/>
+    <col min="11" max="11" width="9.125" style="6"/>
     <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.3571428571429" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9.125" style="2"/>
@@ -1284,7 +1292,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1313,7 +1321,7 @@
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="6">
         <v>2.5</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1335,7 +1343,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1344,7 +1352,7 @@
     <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="6.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.5892857142857" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.125" style="2"/>
@@ -1363,7 +1371,7 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1386,7 +1394,7 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>2.5</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1408,7 +1416,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -1418,7 +1426,7 @@
     <col min="3" max="8" width="9.125" style="3"/>
     <col min="9" max="9" width="10.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="22" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" customWidth="1"/>
     <col min="12" max="12" width="26.4910714285714" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9.125" style="3"/>
   </cols>
@@ -1454,7 +1462,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1480,7 +1488,7 @@
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="6">
         <v>2.5</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1498,8 +1506,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1507,7 +1515,7 @@
     <col min="1" max="1" width="52.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="63.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.4017857142857" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.125" style="3"/>
   </cols>
@@ -1522,7 +1530,7 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1539,7 +1547,7 @@
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>2.5</v>
       </c>
       <c r="E2" s="2" t="s">

--- a/server/api/src/main/resources/template/卷王题库导入模板.xlsx
+++ b/server/api/src/main/resources/template/卷王题库导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17860" activeTab="4"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>题干</t>
   </si>
@@ -100,31 +100,34 @@
     <t>题目比较简单，自行分析</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>简单 语文</t>
+  </si>
+  <si>
+    <t>水浒传</t>
+  </si>
+  <si>
+    <t>三国演义</t>
+  </si>
+  <si>
+    <t>红楼梦</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>西游记是中华四大名著之一</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>简单 语文</t>
-  </si>
-  <si>
-    <t>水浒传</t>
-  </si>
-  <si>
-    <t>三国演义</t>
-  </si>
-  <si>
-    <t>红楼梦</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>西游记是中华四大名著之一</t>
-  </si>
-  <si>
-    <t>正确</t>
-  </si>
-  <si>
-    <t>错误</t>
   </si>
   <si>
     <t>空 1</t>
@@ -163,10 +166,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0;[Red]0.0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,23 +187,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +224,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,40 +263,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,54 +292,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,55 +346,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,127 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +568,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -585,26 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,21 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -649,148 +637,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1134,8 +1137,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -1398,7 +1401,7 @@
         <v>2.5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
@@ -1436,34 +1439,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>12</v>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -1506,8 +1509,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1" outlineLevelCol="4"/>

--- a/server/api/src/main/resources/template/卷王题库导入模板.xlsx
+++ b/server/api/src/main/resources/template/卷王题库导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,20 @@
     <author>dahuang</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>说明：
+多次导入，会按照相同序号进行题库更新。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +54,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>题干</t>
   </si>
@@ -80,6 +96,9 @@
   </si>
   <si>
     <t>标签</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>中华四大名著都有哪些，下列正确的是</t>
@@ -163,15 +182,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0;[Red]0.0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0;[Red]0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,24 +199,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,21 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -239,14 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -256,52 +285,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,20 +315,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -346,187 +370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,11 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,21 +608,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,17 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -652,151 +656,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -819,54 +843,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1133,33 +1157,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="6"/>
-    <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.4821428571429" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="9.125" style="2"/>
+    <col min="2" max="2" width="32.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="6"/>
+    <col min="13" max="13" width="11.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.4821428571429" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,43 +1215,49 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="39" customHeight="1" spans="1:13">
+    <row r="2" ht="39" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6">
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1238,33 +1269,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="6"/>
-    <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.3571428571429" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="9.125" style="2"/>
+    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="6"/>
+    <col min="13" max="13" width="11.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.3571428571429" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,43 +1327,49 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="39" customHeight="1" spans="1:13">
+    <row r="2" ht="39" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1341,27 +1379,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="54.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.5892857142857" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="9.125" style="2"/>
+    <col min="2" max="2" width="54.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.5892857142857" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,39 +1411,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="29" customHeight="1" spans="1:7">
+    <row r="2" ht="29" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6">
         <v>2.5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1414,88 +1459,95 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="54.7589285714286" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="8" width="9.125" style="3"/>
-    <col min="9" max="9" width="10.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="12" width="26.4910714285714" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="9.125" style="3"/>
+    <col min="2" max="2" width="54.7589285714286" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="3" customWidth="1"/>
+    <col min="4" max="9" width="9.125" style="3"/>
+    <col min="10" max="10" width="10.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.4910714285714" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:12">
+    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1505,56 +1557,63 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="52.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="63.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.4017857142857" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="9.125" style="3"/>
+    <col min="2" max="2" width="52.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="63.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.4017857142857" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="27.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="29" customHeight="1" spans="1:5">
+    <row r="2" s="2" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
         <v>2.5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/server/api/src/main/resources/template/卷王题库导入模板.xlsx
+++ b/server/api/src/main/resources/template/卷王题库导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="14540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
     <sheet name="填空题" sheetId="4" r:id="rId4"/>
     <sheet name="简答题" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>序号</t>
   </si>
@@ -123,6 +136,9 @@
   </si>
   <si>
     <t>简单 语文</t>
+  </si>
+  <si>
+    <t>å</t>
   </si>
   <si>
     <t>水浒传</t>
@@ -1159,13 +1175,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.125" style="2"/>
     <col min="2" max="2" width="32.875" style="2" customWidth="1"/>
@@ -1260,6 +1276,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" ht="17" spans="5:5">
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1274,7 +1295,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A1" sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1351,13 +1372,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>20</v>
@@ -1366,7 +1387,7 @@
         <v>2.5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>22</v>
@@ -1384,7 +1405,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1431,13 +1452,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1446,7 +1467,7 @@
         <v>2.5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
@@ -1464,7 +1485,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A1" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1488,34 +1509,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>13</v>
@@ -1526,19 +1547,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>20</v>
@@ -1561,8 +1582,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1604,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
